--- a/biology/Mycologie/Hygrophoropsidaceae/Hygrophoropsidaceae.xlsx
+++ b/biology/Mycologie/Hygrophoropsidaceae/Hygrophoropsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Hygrophoropsidaceae (Hygrophoropsidacées) est une famille de champignons basidiomycètes de l'ordre des Boletales. C'est la famille de la Fausse Chanterelle (Hygrophoropsis aurantiaca).
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après la 10e édition du Dictionary of the Fungi[1],[2] (2007), cette famille est constituée de deux genres :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après la 10e édition du Dictionary of the Fungi, (2007), cette famille est constituée de deux genres :
 Hygrophoropsis  (J. Schröt.) Maire ex Martin-Sans 1929
 Leucogyrophana  Pouzar 1958
-Selon Catalogue of Life                                   (26 mai 2013)[3] :
+Selon Catalogue of Life                                   (26 mai 2013) :
 genre Hygrophoropsis
 genre Leucogyrophana
-Selon NCBI  (26 mai 2013)[4] :
+Selon NCBI  (26 mai 2013) :
 genre Hygrophoropsis
 Hygrophoropsis aurantiaca</t>
         </is>
